--- a/InputData/fuels/BFoVTStCT/BAU Fraction of Vehicle Types Subject to Carbon Tax.xlsx
+++ b/InputData/fuels/BFoVTStCT/BAU Fraction of Vehicle Types Subject to Carbon Tax.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\BFOVTStCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\BFoVTStCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39211E-D025-4205-BE83-0463BF969A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19B7EB3-A686-4BEC-98E2-1652FCEF7D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="2625" windowWidth="21600" windowHeight="11175" activeTab="2" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
+    <workbookView xWindow="60390" yWindow="2790" windowWidth="25020" windowHeight="13230" activeTab="2" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Unit: dimensionless</t>
   </si>
@@ -66,9 +66,6 @@
     <t>This file controls which vehicle types are subject to carbon prices.</t>
   </si>
   <si>
-    <t>In the U.S. we cover all fuel types</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -90,33 +87,6 @@
     <t>BFoVTStCT BAU Fraction of Vehicle Types Subject to Carbon Tax</t>
   </si>
   <si>
-    <t>European Commission</t>
-  </si>
-  <si>
-    <t>https://climate.ec.europa.eu/news-your-voice/news/commission-decides-2024-allowances-aircraft-operators-2023-10-31_en</t>
-  </si>
-  <si>
-    <t>Share of free allowances for aviation</t>
-  </si>
-  <si>
-    <t>2024 free allowances</t>
-  </si>
-  <si>
-    <t>Free share of allowances</t>
-  </si>
-  <si>
-    <t>Aviation allowance cap</t>
-  </si>
-  <si>
-    <t>Cap linear reduction from 2024 to 2027</t>
-  </si>
-  <si>
-    <t>Free allocation reduction 2024</t>
-  </si>
-  <si>
-    <t>Free allocation reduction 2025</t>
-  </si>
-  <si>
     <t>ETS Phase 3; aviation allowances</t>
   </si>
   <si>
@@ -135,10 +105,25 @@
     <t>https://icapcarbonaction.com/system/files/ets_pdfs/icap-etsmap-factsheet-43.pdf</t>
   </si>
   <si>
-    <t>Phase 3 share of free allowances</t>
-  </si>
-  <si>
-    <t>Phase 4; aviation calculations</t>
+    <t>Phase 4; aviation allowances</t>
+  </si>
+  <si>
+    <t>Free allocation reduced and phased out</t>
+  </si>
+  <si>
+    <t>2026-on</t>
+  </si>
+  <si>
+    <t>Aviation Free Allowance Share</t>
+  </si>
+  <si>
+    <t>Phase 3-4 share of free allowances</t>
+  </si>
+  <si>
+    <t>In the EU, aviation is covered by ETS1.</t>
+  </si>
+  <si>
+    <t>Road vehicles, covered by ETS2, are not included in the pre-FF55 BAU.</t>
   </si>
 </sst>
 </file>
@@ -215,7 +200,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -228,6 +213,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,73 +731,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE5FEEC-01CE-4291-999E-35B30A1256CF}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -821,143 +802,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085096F7-D803-41CE-9776-6D94AB226428}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>0.15</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>0.82</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>0.03</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="B8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="B9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>2024</v>
-      </c>
-      <c r="C12">
-        <v>2025</v>
-      </c>
-      <c r="D12">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>28886578</v>
-      </c>
-      <c r="C13">
-        <f>B13*(1-$A7)</f>
-        <v>27644455.145999998</v>
-      </c>
-      <c r="D13">
-        <f>C13*(1-$A7)</f>
-        <v>26455743.574721996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>24536591</v>
-      </c>
-      <c r="C16">
-        <f>B13*0.75</f>
-        <v>21664933.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>2024</v>
-      </c>
-      <c r="C19">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f>B16/B13</f>
-        <v>0.84941148099993014</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>0.75</v>
-      </c>
-      <c r="C21">
-        <v>0.5</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -973,17 +889,17 @@
   <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,199 +994,199 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
       <c r="B4" s="9">
         <f>1-Data!$A3</f>
@@ -1285,308 +1201,308 @@
         <v>0.18000000000000005</v>
       </c>
       <c r="E4" s="9">
-        <f>1-Data!B21</f>
+        <f>1-Data!A8</f>
         <v>0.25</v>
       </c>
       <c r="F4" s="9">
-        <f>1-Data!C21</f>
+        <f>1-Data!A9</f>
         <v>0.5</v>
       </c>
       <c r="G4" s="4">
-        <f>1-Data!D21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <f>1-Data!E21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="I4" s="4">
-        <f>1-Data!F21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="J4" s="4">
-        <f>1-Data!G21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="K4" s="4">
-        <f>1-Data!H21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="L4" s="4">
-        <f>1-Data!I21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="M4" s="4">
-        <f>1-Data!J21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="N4" s="4">
-        <f>1-Data!K21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="O4" s="4">
-        <f>1-Data!L21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="P4" s="4">
-        <f>1-Data!M21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="Q4" s="4">
-        <f>1-Data!N21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="R4" s="4">
-        <f>1-Data!O21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="S4" s="4">
-        <f>1-Data!P21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="T4" s="4">
-        <f>1-Data!Q21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="U4" s="4">
-        <f>1-Data!R21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="V4" s="4">
-        <f>1-Data!S21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="W4" s="4">
-        <f>1-Data!T21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="X4" s="4">
-        <f>1-Data!U21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="Y4" s="4">
-        <f>1-Data!V21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="Z4" s="4">
-        <f>1-Data!W21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="AA4" s="4">
-        <f>1-Data!X21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="AB4" s="4">
-        <f>1-Data!Y21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="AC4" s="4">
-        <f>1-Data!Z21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="AD4" s="4">
-        <f>1-Data!AA21</f>
+        <f>1-Data!$A10</f>
         <v>1</v>
       </c>
       <c r="AE4" s="4">
-        <f>1-Data!AB21</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <f>1-Data!$A10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
       <c r="B7" s="4">
         <v>0</v>
       </c>
@@ -1678,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1710,7 +1626,7 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1742,7 +1658,7 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1774,7 +1690,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1806,7 +1722,7 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1838,7 +1754,7 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1870,7 +1786,7 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1902,7 +1818,7 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1934,7 +1850,7 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1966,7 +1882,7 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1998,7 +1914,7 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2030,7 +1946,7 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2062,7 +1978,7 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2094,7 +2010,7 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2126,7 +2042,7 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2158,7 +2074,7 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2190,7 +2106,7 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2222,7 +2138,7 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2254,7 +2170,7 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2286,7 +2202,7 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
